--- a/biology/Botanique/Orchis_négligé/Orchis_négligé.xlsx
+++ b/biology/Botanique/Orchis_négligé/Orchis_négligé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orchis_n%C3%A9glig%C3%A9</t>
+          <t>Orchis_négligé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylorhiza praetermissa
 L'Orchis négligé (Dactylorhiza praetermissa) est une espèce de plantes à fleurs de la famille des Orchidaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orchis_n%C3%A9glig%C3%A9</t>
+          <t>Orchis_négligé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve cette espèce dans les prairies humides et dans les pannes dunaires du nord de l'Europe, de la Suède à l'Italie.
 En France, on la trouve dans le Nord du pays, de la Bretagne à l'Alsace.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orchis_n%C3%A9glig%C3%A9</t>
+          <t>Orchis_négligé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace robuste pouvant atteindre 40 cm de haut.
 Ses fleurs, de rose pâle à rouge violacé sont disposées en épi assez dense. Elle fleurit de juin à juillet. Elle est reconnaissable à son labelle étalé, peu découpé aux bords latéraux légèrement recourbés vers l'avant.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orchis_n%C3%A9glig%C3%A9</t>
+          <t>Orchis_négligé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est en régression à la suite de la diminution du nombre et de la taille des zones humides et des prairies non amendées.
-Elle est classée NT : Espèce quasi menacée[1].
+Elle est classée NT : Espèce quasi menacée.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orchis_n%C3%A9glig%C3%A9</t>
+          <t>Orchis_négligé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Statuts de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle figure sur les listes des plantes protégées dans l'Union européenne, notamment aux Pays-Bas, en Belgique et dans les régions françaises de Champagne-Ardenne et de Lorraine.
 </t>
